--- a/pensioners_organized.xlsx
+++ b/pensioners_organized.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowwww\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowwww\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A0A896-8BE4-4674-AEE6-A2EA12DD16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72DE33-8907-40EF-B7F8-5FC21E8A4E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="782">
   <si>
     <t>S/N</t>
   </si>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M256"/>
+    <sheetView tabSelected="1" topLeftCell="E236" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254:F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="B2">
         <v>901003</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>534</v>
       </c>
       <c r="B3">
         <v>901019</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>535</v>
       </c>
       <c r="B4">
         <v>901004</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>536</v>
       </c>
       <c r="B5">
         <v>9012569</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>537</v>
       </c>
       <c r="B6">
         <v>9012518</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>538</v>
       </c>
       <c r="B7">
         <v>9012510</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>539</v>
       </c>
       <c r="B8">
         <v>9012556</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="B9">
         <v>9012566</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>541</v>
       </c>
       <c r="B10">
         <v>902042</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>542</v>
       </c>
       <c r="B11">
         <v>906191</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>543</v>
       </c>
       <c r="B12">
         <v>906192</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="B13">
         <v>9012475</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>545</v>
       </c>
       <c r="B14">
         <v>901232</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>546</v>
       </c>
       <c r="B15">
         <v>9012546</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>547</v>
       </c>
       <c r="B16">
         <v>901015</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>548</v>
       </c>
       <c r="B17">
         <v>901104</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>549</v>
       </c>
       <c r="B18">
         <v>901157</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>550</v>
       </c>
       <c r="B19">
         <v>9012496</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>551</v>
       </c>
       <c r="B20">
         <v>9012540</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>552</v>
       </c>
       <c r="B21">
         <v>901198</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>553</v>
       </c>
       <c r="B22">
         <v>9012524</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>554</v>
       </c>
       <c r="B23">
         <v>9012519</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>555</v>
       </c>
       <c r="B24">
         <v>9012533</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>556</v>
       </c>
       <c r="B25">
         <v>901202</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>557</v>
       </c>
       <c r="B26">
         <v>9012536</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>558</v>
       </c>
       <c r="B27">
         <v>9012483</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>559</v>
       </c>
       <c r="B28">
         <v>901138</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>560</v>
       </c>
       <c r="B29">
         <v>901061</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>561</v>
       </c>
       <c r="B30">
         <v>901119</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>562</v>
       </c>
       <c r="B31">
         <v>9012570</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="B32">
         <v>9012477</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>564</v>
       </c>
       <c r="B33">
         <v>903222</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>565</v>
       </c>
       <c r="B34">
         <v>9012504</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>566</v>
       </c>
       <c r="B35">
         <v>901097</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>567</v>
       </c>
       <c r="B36">
         <v>9012565</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>568</v>
       </c>
       <c r="B37">
         <v>901012</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>569</v>
       </c>
       <c r="B38">
         <v>9012567</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>570</v>
       </c>
       <c r="B39">
         <v>9012544</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>571</v>
       </c>
       <c r="B40">
         <v>904022</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>572</v>
       </c>
       <c r="B41">
         <v>901061</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>573</v>
       </c>
       <c r="B42">
         <v>9012562</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="B43">
         <v>9012484</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>575</v>
       </c>
       <c r="B44">
         <v>9012554</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>576</v>
       </c>
       <c r="B45">
         <v>9012561</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>577</v>
       </c>
       <c r="B46">
         <v>9012568</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>578</v>
       </c>
       <c r="B47">
         <v>901086</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
+        <v>579</v>
       </c>
       <c r="B48">
         <v>9012506</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
+        <v>580</v>
       </c>
       <c r="B49">
         <v>9012539</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>581</v>
       </c>
       <c r="B50">
         <v>9012562</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>582</v>
       </c>
       <c r="B51">
         <v>901243</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>583</v>
       </c>
       <c r="B52">
         <v>9012517</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>584</v>
       </c>
       <c r="B53">
         <v>9012453</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="B54">
         <v>901152</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>586</v>
       </c>
       <c r="B55">
         <v>9012457</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>587</v>
       </c>
       <c r="B56">
         <v>9012542</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>588</v>
       </c>
       <c r="B57">
         <v>9012535</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>589</v>
       </c>
       <c r="B58">
         <v>9012469</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>590</v>
       </c>
       <c r="B59">
         <v>9012558</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>591</v>
       </c>
       <c r="B60">
         <v>9012520</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>592</v>
       </c>
       <c r="B61">
         <v>9012438</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>593</v>
       </c>
       <c r="B62">
         <v>901094</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>594</v>
       </c>
       <c r="B63">
         <v>9012564</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>595</v>
       </c>
       <c r="B64">
         <v>901050</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65</v>
+        <v>596</v>
       </c>
       <c r="B65">
         <v>901088</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
+        <v>597</v>
       </c>
       <c r="B66">
         <v>9012438</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>67</v>
+        <v>598</v>
       </c>
       <c r="B67">
         <v>906190</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
+        <v>599</v>
       </c>
       <c r="B68">
         <v>9012492</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>600</v>
       </c>
       <c r="B69">
         <v>9012526</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>601</v>
       </c>
       <c r="B70">
         <v>901144</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>602</v>
       </c>
       <c r="B71">
         <v>9012534</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>603</v>
       </c>
       <c r="B72">
         <v>9012494</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>604</v>
       </c>
       <c r="B73">
         <v>901061</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
+        <v>605</v>
       </c>
       <c r="B74">
         <v>903218</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>606</v>
       </c>
       <c r="B75">
         <v>902434</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
+        <v>607</v>
       </c>
       <c r="B76">
         <v>9012491</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
+        <v>608</v>
       </c>
       <c r="B77">
         <v>903220</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>78</v>
+        <v>609</v>
       </c>
       <c r="B78">
         <v>903206</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="B79">
         <v>191031</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="B80">
         <v>9012531</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
+        <v>612</v>
       </c>
       <c r="B81">
         <v>901240</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>82</v>
+        <v>613</v>
       </c>
       <c r="B82">
         <v>903212</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>83</v>
+        <v>614</v>
       </c>
       <c r="B83">
         <v>903208</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>84</v>
+        <v>615</v>
       </c>
       <c r="B84">
         <v>9012462</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="B85">
         <v>906193</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="B86">
         <v>903205</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
+        <v>618</v>
       </c>
       <c r="B87">
         <v>903210</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
+        <v>619</v>
       </c>
       <c r="B88">
         <v>9012552</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>89</v>
+        <v>620</v>
       </c>
       <c r="B89">
         <v>901045</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="B90">
         <v>9012545</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>91</v>
+        <v>622</v>
       </c>
       <c r="B91">
         <v>9012529</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>92</v>
+        <v>623</v>
       </c>
       <c r="B92">
         <v>901194</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
+        <v>624</v>
       </c>
       <c r="B93">
         <v>903219</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>94</v>
+        <v>625</v>
       </c>
       <c r="B94">
         <v>901195</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>95</v>
+        <v>626</v>
       </c>
       <c r="B95">
         <v>903214</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>96</v>
+        <v>627</v>
       </c>
       <c r="B96">
         <v>901134</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>97</v>
+        <v>628</v>
       </c>
       <c r="B97">
         <v>903216</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>98</v>
+        <v>629</v>
       </c>
       <c r="B98">
         <v>903010</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>99</v>
+        <v>630</v>
       </c>
       <c r="B99">
         <v>9012522</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>100</v>
+        <v>631</v>
       </c>
       <c r="B100">
         <v>9012485</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>101</v>
+        <v>632</v>
       </c>
       <c r="B101">
         <v>9012456</v>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>102</v>
+        <v>633</v>
       </c>
       <c r="B102">
         <v>903215</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>103</v>
+        <v>634</v>
       </c>
       <c r="B103">
         <v>901186</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="B104">
         <v>9012557</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>105</v>
+        <v>636</v>
       </c>
       <c r="B105">
         <v>903005</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>106</v>
+        <v>637</v>
       </c>
       <c r="B106">
         <v>9012553</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>107</v>
+        <v>638</v>
       </c>
       <c r="B107">
         <v>9012537</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>108</v>
+        <v>639</v>
       </c>
       <c r="B108">
         <v>902010</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>109</v>
+        <v>640</v>
       </c>
       <c r="B109">
         <v>901126</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>110</v>
+        <v>641</v>
       </c>
       <c r="B110">
         <v>901136</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>111</v>
+        <v>642</v>
       </c>
       <c r="B111">
         <v>9012521</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>112</v>
+        <v>643</v>
       </c>
       <c r="B112">
         <v>9012446</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>113</v>
+        <v>644</v>
       </c>
       <c r="B113">
         <v>902029</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>114</v>
+        <v>645</v>
       </c>
       <c r="B114">
         <v>901090</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>115</v>
+        <v>646</v>
       </c>
       <c r="B115">
         <v>904019</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>116</v>
+        <v>647</v>
       </c>
       <c r="B116">
         <v>9012490</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>117</v>
+        <v>648</v>
       </c>
       <c r="B117">
         <v>9012465</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>118</v>
+        <v>649</v>
       </c>
       <c r="B118">
         <v>904021</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>119</v>
+        <v>650</v>
       </c>
       <c r="B119">
         <v>904005</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>120</v>
+        <v>651</v>
       </c>
       <c r="B120">
         <v>9012514</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>121</v>
+        <v>652</v>
       </c>
       <c r="B121">
         <v>903217</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>122</v>
+        <v>653</v>
       </c>
       <c r="B122">
         <v>904015</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>123</v>
+        <v>654</v>
       </c>
       <c r="B123">
         <v>904011</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>124</v>
+        <v>655</v>
       </c>
       <c r="B124">
         <v>504014</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>125</v>
+        <v>656</v>
       </c>
       <c r="B125">
         <v>9012458</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>126</v>
+        <v>657</v>
       </c>
       <c r="B126">
         <v>901239</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>127</v>
+        <v>658</v>
       </c>
       <c r="B127">
         <v>902035</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>128</v>
+        <v>659</v>
       </c>
       <c r="B128">
         <v>904024</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>129</v>
+        <v>660</v>
       </c>
       <c r="B129">
         <v>904012</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>130</v>
+        <v>661</v>
       </c>
       <c r="B130">
         <v>902200</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>131</v>
+        <v>662</v>
       </c>
       <c r="B131">
         <v>904023</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>132</v>
+        <v>663</v>
       </c>
       <c r="B132">
         <v>9012486</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>133</v>
+        <v>664</v>
       </c>
       <c r="B133">
         <v>902037</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>134</v>
+        <v>665</v>
       </c>
       <c r="B134">
         <v>904020</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>135</v>
+        <v>666</v>
       </c>
       <c r="B135">
         <v>902204</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>136</v>
+        <v>667</v>
       </c>
       <c r="B136">
         <v>901016</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>137</v>
+        <v>668</v>
       </c>
       <c r="B137">
         <v>901218</v>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>138</v>
+        <v>669</v>
       </c>
       <c r="B138">
         <v>902446</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>139</v>
+        <v>670</v>
       </c>
       <c r="B139">
         <v>9012508</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>140</v>
+        <v>671</v>
       </c>
       <c r="B140">
         <v>902002</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>141</v>
+        <v>672</v>
       </c>
       <c r="B141">
         <v>902203</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>142</v>
+        <v>673</v>
       </c>
       <c r="B142">
         <v>902209</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>143</v>
+        <v>674</v>
       </c>
       <c r="B143">
         <v>902206</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>144</v>
+        <v>675</v>
       </c>
       <c r="B144">
         <v>902212</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>145</v>
+        <v>676</v>
       </c>
       <c r="B145">
         <v>902210</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>146</v>
+        <v>677</v>
       </c>
       <c r="B146">
         <v>902039</v>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>147</v>
+        <v>678</v>
       </c>
       <c r="B147">
         <v>902009</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>148</v>
+        <v>679</v>
       </c>
       <c r="B148">
         <v>902211</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>149</v>
+        <v>680</v>
       </c>
       <c r="B149">
         <v>902215</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>150</v>
+        <v>681</v>
       </c>
       <c r="B150">
         <v>902213</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>151</v>
+        <v>682</v>
       </c>
       <c r="B151">
         <v>902208</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>152</v>
+        <v>683</v>
       </c>
       <c r="B152">
         <v>9012466</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>153</v>
+        <v>684</v>
       </c>
       <c r="B153">
         <v>902047</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>154</v>
+        <v>685</v>
       </c>
       <c r="B154">
         <v>902031</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>157</v>
+        <v>686</v>
       </c>
       <c r="B155">
         <v>905213</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>158</v>
+        <v>687</v>
       </c>
       <c r="B156">
         <v>905212</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>159</v>
+        <v>688</v>
       </c>
       <c r="B157">
         <v>905202</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>160</v>
+        <v>689</v>
       </c>
       <c r="B158">
         <v>905207</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>161</v>
+        <v>690</v>
       </c>
       <c r="B159">
         <v>905214</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>163</v>
+        <v>691</v>
       </c>
       <c r="B160">
         <v>905012</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>164</v>
+        <v>692</v>
       </c>
       <c r="B161">
         <v>905208</v>
@@ -8458,7 +8458,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>165</v>
+        <v>693</v>
       </c>
       <c r="B162">
         <v>9012459</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>166</v>
+        <v>694</v>
       </c>
       <c r="B163">
         <v>901235</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>167</v>
+        <v>695</v>
       </c>
       <c r="B164">
         <v>901122</v>
@@ -8563,7 +8563,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>168</v>
+        <v>696</v>
       </c>
       <c r="B165">
         <v>905215</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>170</v>
+        <v>697</v>
       </c>
       <c r="B166">
         <v>9012429</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>171</v>
+        <v>698</v>
       </c>
       <c r="B167">
         <v>905004</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>172</v>
+        <v>699</v>
       </c>
       <c r="B168">
         <v>9012427</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>173</v>
+        <v>700</v>
       </c>
       <c r="B169">
         <v>9012513</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>174</v>
+        <v>701</v>
       </c>
       <c r="B170">
         <v>902202</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>175</v>
+        <v>702</v>
       </c>
       <c r="B171">
         <v>901199</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>176</v>
+        <v>703</v>
       </c>
       <c r="B172">
         <v>901093</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>177</v>
+        <v>704</v>
       </c>
       <c r="B173">
         <v>901029</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>178</v>
+        <v>705</v>
       </c>
       <c r="B174">
         <v>9012493</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>179</v>
+        <v>706</v>
       </c>
       <c r="B175">
         <v>902035</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>180</v>
+        <v>707</v>
       </c>
       <c r="B176">
         <v>9012523</v>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>181</v>
+        <v>708</v>
       </c>
       <c r="B177">
         <v>9012420</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>182</v>
+        <v>709</v>
       </c>
       <c r="B178">
         <v>9012428</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>183</v>
+        <v>710</v>
       </c>
       <c r="B179">
         <v>901132</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>184</v>
+        <v>711</v>
       </c>
       <c r="B180">
         <v>9012505</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>185</v>
+        <v>712</v>
       </c>
       <c r="B181">
         <v>9012479</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>186</v>
+        <v>713</v>
       </c>
       <c r="B182">
         <v>901077</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>187</v>
+        <v>714</v>
       </c>
       <c r="B183">
         <v>9012494</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>188</v>
+        <v>715</v>
       </c>
       <c r="B184">
         <v>902041</v>
@@ -9263,7 +9263,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>189</v>
+        <v>716</v>
       </c>
       <c r="B185">
         <v>9012524</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>190</v>
+        <v>717</v>
       </c>
       <c r="B186">
         <v>901040</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>191</v>
+        <v>718</v>
       </c>
       <c r="B187">
         <v>9012512</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>192</v>
+        <v>719</v>
       </c>
       <c r="B188">
         <v>902205</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>193</v>
+        <v>720</v>
       </c>
       <c r="B189">
         <v>9012455</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>194</v>
+        <v>721</v>
       </c>
       <c r="B190">
         <v>901175</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>197</v>
+        <v>722</v>
       </c>
       <c r="B191">
         <v>901216</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>198</v>
+        <v>723</v>
       </c>
       <c r="B192">
         <v>903009</v>
@@ -9546,7 +9546,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>199</v>
+        <v>724</v>
       </c>
       <c r="B193">
         <v>901060</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>200</v>
+        <v>725</v>
       </c>
       <c r="B194">
         <v>901074</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>202</v>
+        <v>726</v>
       </c>
       <c r="B195">
         <v>901222</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>203</v>
+        <v>727</v>
       </c>
       <c r="B196">
         <v>901096</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>204</v>
+        <v>728</v>
       </c>
       <c r="B197">
         <v>9012530</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>205</v>
+        <v>729</v>
       </c>
       <c r="B198">
         <v>9012478</v>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>206</v>
+        <v>730</v>
       </c>
       <c r="B199">
         <v>901018</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>207</v>
+        <v>731</v>
       </c>
       <c r="B200">
         <v>9012495</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>208</v>
+        <v>732</v>
       </c>
       <c r="B201">
         <v>902214</v>
@@ -9861,7 +9861,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>209</v>
+        <v>733</v>
       </c>
       <c r="B202">
         <v>904018</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>210</v>
+        <v>734</v>
       </c>
       <c r="B203">
         <v>9012482</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>211</v>
+        <v>735</v>
       </c>
       <c r="B204">
         <v>90124889</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>212</v>
+        <v>736</v>
       </c>
       <c r="B205">
         <v>9012499</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>213</v>
+        <v>737</v>
       </c>
       <c r="B206">
         <v>901180</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>214</v>
+        <v>738</v>
       </c>
       <c r="B207">
         <v>9012532</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>215</v>
+        <v>739</v>
       </c>
       <c r="B208">
         <v>902004</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>216</v>
+        <v>740</v>
       </c>
       <c r="B209">
         <v>9012481</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>218</v>
+        <v>741</v>
       </c>
       <c r="B210">
         <v>9012538</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>219</v>
+        <v>742</v>
       </c>
       <c r="B211">
         <v>901118</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>220</v>
+        <v>743</v>
       </c>
       <c r="B212">
         <v>901054</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>221</v>
+        <v>744</v>
       </c>
       <c r="B213">
         <v>901057</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>222</v>
+        <v>745</v>
       </c>
       <c r="B214">
         <v>902184</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>223</v>
+        <v>746</v>
       </c>
       <c r="B215">
         <v>901053</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>224</v>
+        <v>747</v>
       </c>
       <c r="B216">
         <v>901106</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>225</v>
+        <v>748</v>
       </c>
       <c r="B217">
         <v>901047</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>227</v>
+        <v>749</v>
       </c>
       <c r="B218">
         <v>901038</v>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>228</v>
+        <v>750</v>
       </c>
       <c r="B219">
         <v>901162</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>229</v>
+        <v>751</v>
       </c>
       <c r="B220">
         <v>903213</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>230</v>
+        <v>752</v>
       </c>
       <c r="B221">
         <v>9012511</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>232</v>
+        <v>753</v>
       </c>
       <c r="B222">
         <v>903003</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>233</v>
+        <v>754</v>
       </c>
       <c r="B223">
         <v>901137</v>
@@ -10643,7 +10643,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>234</v>
+        <v>755</v>
       </c>
       <c r="B224">
         <v>901139</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>235</v>
+        <v>756</v>
       </c>
       <c r="B225">
         <v>901083</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>236</v>
+        <v>757</v>
       </c>
       <c r="B226">
         <v>9012572</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>238</v>
+        <v>758</v>
       </c>
       <c r="B227">
         <v>901211</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>239</v>
+        <v>759</v>
       </c>
       <c r="B228">
         <v>905003</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>240</v>
+        <v>760</v>
       </c>
       <c r="B229">
         <v>905196</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>241</v>
+        <v>761</v>
       </c>
       <c r="B230">
         <v>901091</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>242</v>
+        <v>762</v>
       </c>
       <c r="B231">
         <v>901123</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>243</v>
+        <v>763</v>
       </c>
       <c r="B232">
         <v>901212</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>245</v>
+        <v>764</v>
       </c>
       <c r="B233">
         <v>111111</v>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>246</v>
+        <v>765</v>
       </c>
       <c r="B234">
         <v>111112</v>
@@ -11040,7 +11040,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>247</v>
+        <v>766</v>
       </c>
       <c r="B235">
         <v>111113</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>248</v>
+        <v>767</v>
       </c>
       <c r="B236">
         <v>111114</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>249</v>
+        <v>768</v>
       </c>
       <c r="B237">
         <v>111115</v>
@@ -11148,7 +11148,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>250</v>
+        <v>769</v>
       </c>
       <c r="B238">
         <v>111116</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>252</v>
+        <v>770</v>
       </c>
       <c r="B239">
         <v>111117</v>
@@ -11218,7 +11218,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>253</v>
+        <v>771</v>
       </c>
       <c r="B240">
         <v>111118</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>254</v>
+        <v>772</v>
       </c>
       <c r="B241">
         <v>111119</v>
@@ -11290,6 +11290,9 @@
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>773</v>
+      </c>
       <c r="B242">
         <v>901107</v>
       </c>
@@ -11322,6 +11325,9 @@
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>774</v>
+      </c>
       <c r="B243">
         <v>902045</v>
       </c>
@@ -11354,6 +11360,9 @@
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>775</v>
+      </c>
       <c r="B244">
         <v>902013</v>
       </c>
@@ -11386,6 +11395,9 @@
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>776</v>
+      </c>
       <c r="B245">
         <v>905011</v>
       </c>
@@ -11418,6 +11430,9 @@
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>777</v>
+      </c>
       <c r="B246">
         <v>905011</v>
       </c>
@@ -11450,6 +11465,9 @@
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>778</v>
+      </c>
       <c r="B247">
         <v>901022</v>
       </c>
@@ -11485,6 +11503,9 @@
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>779</v>
+      </c>
       <c r="B248">
         <v>901142</v>
       </c>
@@ -11517,6 +11538,9 @@
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>780</v>
+      </c>
       <c r="B249">
         <v>901110</v>
       </c>
@@ -11549,6 +11573,9 @@
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>781</v>
+      </c>
       <c r="B250">
         <v>901226</v>
       </c>
@@ -11581,6 +11608,9 @@
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>782</v>
+      </c>
       <c r="B251">
         <v>901163</v>
       </c>
@@ -11613,6 +11643,9 @@
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>783</v>
+      </c>
       <c r="B252">
         <v>904013</v>
       </c>
@@ -11645,6 +11678,9 @@
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>784</v>
+      </c>
       <c r="B253">
         <v>906188</v>
       </c>
@@ -11677,6 +11713,9 @@
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>785</v>
+      </c>
       <c r="B254">
         <v>901165</v>
       </c>
@@ -11709,6 +11748,9 @@
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>786</v>
+      </c>
       <c r="B255">
         <v>111110</v>
       </c>
@@ -11718,6 +11760,9 @@
       <c r="E255" t="s">
         <v>338</v>
       </c>
+      <c r="F255" t="s">
+        <v>27</v>
+      </c>
       <c r="G255">
         <v>12</v>
       </c>
@@ -11738,6 +11783,9 @@
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>787</v>
+      </c>
       <c r="B256">
         <v>901140</v>
       </c>
